--- a/Documentation/Feb 25 - Mar 2/Test Cases.xlsx
+++ b/Documentation/Feb 25 - Mar 2/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jango\Documents\SMP\Documentation\Feb 25 - Mar 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnq\Documents\GitHub\SMP\Documentation\Feb 25 - Mar 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3524578-8754-4700-8A93-C596095B5B6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A93947-451D-410B-9063-5C40661A83B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6446E0C1-1C89-49C9-B74C-64B6F8926156}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>Input</t>
   </si>
@@ -188,12 +188,66 @@
   <si>
     <t>Error message</t>
   </si>
+  <si>
+    <t>Turn on bluetooth</t>
+  </si>
+  <si>
+    <t>User walking into area</t>
+  </si>
+  <si>
+    <t>Clicking on all connectivity buttons</t>
+  </si>
+  <si>
+    <t>To see the appropriate activity</t>
+  </si>
+  <si>
+    <t>Click on every activity</t>
+  </si>
+  <si>
+    <t>Turn on Bluetooth within vicinity of a store</t>
+  </si>
+  <si>
+    <t>Toast message pops up with message showing conection</t>
+  </si>
+  <si>
+    <t>Turn on Location Services within vicinity of aprox 1 block around business</t>
+  </si>
+  <si>
+    <t>Notification pops up showing users nearby stores</t>
+  </si>
+  <si>
+    <t>Login as customer</t>
+  </si>
+  <si>
+    <t>Submit correct login information</t>
+  </si>
+  <si>
+    <t>Map displaying all nearby stores</t>
+  </si>
+  <si>
+    <t>Login as Customer, open customer feed</t>
+  </si>
+  <si>
+    <t>Open Customer Feed</t>
+  </si>
+  <si>
+    <t>Scrollable list display all nearby applicable promotions being offered</t>
+  </si>
+  <si>
+    <t>Login as a Business</t>
+  </si>
+  <si>
+    <t>Should only be able to see Business side activities</t>
+  </si>
+  <si>
+    <t>You only see Business side activities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +297,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,44 +326,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,251 +688,239 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>99999999</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>99999999</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,212 +932,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9DE083-53AB-458A-AE28-C97092FEF2EB}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
